--- a/Report/Result Prep.xlsx
+++ b/Report/Result Prep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Bradley Smith</t>
-  </si>
-  <si>
-    <t>Sam Taylor</t>
-  </si>
-  <si>
     <t>Nancy Turner</t>
   </si>
   <si>
-    <t>Ben Williamson</t>
-  </si>
-  <si>
     <t>Becky Eastwood</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>Effectiveness</t>
   </si>
   <si>
-    <t>RandomID</t>
-  </si>
-  <si>
     <t>What do you think worked well?</t>
   </si>
   <si>
@@ -146,17 +134,164 @@
     <t>Goals</t>
   </si>
   <si>
-    <t>Sugar(B)</t>
-  </si>
-  <si>
-    <t>Sugar(A)</t>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Other Comments</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Helen Brown</t>
+  </si>
+  <si>
+    <t>brown1996</t>
+  </si>
+  <si>
+    <t>Second Year</t>
+  </si>
+  <si>
+    <t>Sean Greener</t>
+  </si>
+  <si>
+    <t>rebeccabrown</t>
+  </si>
+  <si>
+    <t>kins123</t>
+  </si>
+  <si>
+    <t>holtronsenith</t>
+  </si>
+  <si>
+    <t>nanceturner</t>
+  </si>
+  <si>
+    <t>olliepotter999</t>
+  </si>
+  <si>
+    <t>mkrobb1994</t>
+  </si>
+  <si>
+    <t>zg1994</t>
+  </si>
+  <si>
+    <t>sbg123</t>
+  </si>
+  <si>
+    <t>jc16623</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Felt it was quite easy to use once I'd gotten used to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The popups appeared too regularly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching to see the progress of a previous day took some time </t>
+  </si>
+  <si>
+    <t>Just having to add the foods I was going to be eaten made me think about how unhealthy my diet was</t>
+  </si>
+  <si>
+    <t>Everything seemed to work fine</t>
+  </si>
+  <si>
+    <t>The pie charts and figures helped monitor consumptiohn effectively and easily show issues in my diet</t>
+  </si>
+  <si>
+    <t>The database was not wide enough and did not include a place to add your own nutritional information</t>
+  </si>
+  <si>
+    <t>I would have preferred a place to track my weight as well as intake of nutritional info</t>
+  </si>
+  <si>
+    <t>The ability to go back and add foods to previous days was great, especially when no access to wifi</t>
+  </si>
+  <si>
+    <t>The home page was interesting and changed every day</t>
+  </si>
+  <si>
+    <t>In diary, removing foods could have been done better, perhaps by swiping to remove</t>
+  </si>
+  <si>
+    <t>A quicker way to see progress from other days</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Did not answer</t>
+  </si>
+  <si>
+    <t>It was hard to find the foods I had eaten</t>
+  </si>
+  <si>
+    <t>Took a long time to enter all the ingredients for when I'd created my own meal. Would be good if there was a way to enter this meal into the app so I could just add it if I ate it again</t>
+  </si>
+  <si>
+    <t>No app seemed to work fine</t>
+  </si>
+  <si>
+    <t>Took me a while to get used to the UI</t>
+  </si>
+  <si>
+    <t>The UI looks really basic and the homepage is rather ugly</t>
+  </si>
+  <si>
+    <t>Some of the app's features weren't clear to me; had to ask how to use it</t>
+  </si>
+  <si>
+    <t>Perhaps make the app more colourful, might make it more appealing</t>
+  </si>
+  <si>
+    <t>Didn't find any bugs, everything seemed to work fine</t>
+  </si>
+  <si>
+    <t>Everything seemed to work well bar a few features</t>
+  </si>
+  <si>
+    <t>The UI didn't look great, needed a more polished, professional look</t>
+  </si>
+  <si>
+    <t>The functionality of the app worked fine, but the UI wasn't very attractive. A different colour scheme would have been better</t>
+  </si>
+  <si>
+    <t>When you search, it would be good to display the items automatically without having to press the search button</t>
+  </si>
+  <si>
+    <t>I liked that the content changed every day</t>
+  </si>
+  <si>
+    <t>The popups were really useful as it helped me realise when I was eating too much of a certain food. They stopped me eating certain foods on some days</t>
+  </si>
+  <si>
+    <t>Was easy for me to use, and I liked how you could add foods to previous days</t>
+  </si>
+  <si>
+    <t>I couldn't retrieve my password once I’d forgotten it – luckily managed to remember it</t>
+  </si>
+  <si>
+    <t>None that I can think of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The content which changed every day was useful, but would be good if it was completely different each week </t>
+  </si>
+  <si>
+    <t>I did like how the homepage changed every day, it made me want to see what the newest tip of the day was</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +313,13 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,12 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,6 +375,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF14"/>
+  <dimension ref="A2:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,54 +710,52 @@
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="5" customWidth="1"/>
-    <col min="11" max="14" width="4.7109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="5" customWidth="1"/>
-    <col min="16" max="19" width="4.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" style="5" customWidth="1"/>
-    <col min="21" max="24" width="4.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" style="5" customWidth="1"/>
-    <col min="26" max="28" width="4.7109375" style="2" customWidth="1"/>
-    <col min="29" max="29" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="44.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="4"/>
+    <col min="8" max="8" width="4.7109375" style="5" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="5" customWidth="1"/>
+    <col min="14" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="5" customWidth="1"/>
+    <col min="19" max="22" width="4.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="5" customWidth="1"/>
+    <col min="24" max="26" width="4.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="54.5703125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="58.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="65.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="J2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="7"/>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="7"/>
+      <c r="M2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="7"/>
+      <c r="R2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="W2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="9"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -632,80 +773,79 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="Y3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="AC3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -716,15 +856,93 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <f>SUM(H4:K4)/4</f>
+        <v>2.75</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>SUM(M4:P4)/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <f>SUM(R4:U4)/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>SUM(W4:Y4)/3</f>
+        <v>3</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
       <c r="D5">
         <v>22</v>
       </c>
@@ -734,104 +952,562 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <f>SUM(H5:K5)/4</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>SUM(M5:P5)/4</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2">
+        <f>SUM(R5:U5)/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>SUM(W5:Y5)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L8" si="0">SUM(H6:K6)/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6:Q13" si="1">SUM(M6:P6)/4</f>
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" ref="V6:V13" si="2">SUM(R6:U6)/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="W6" s="5">
+        <v>4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z13" si="3">SUM(W6:Y6)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
       </c>
       <c r="D7">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="R7" s="5">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="W7" s="5">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="R8" s="5">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="W8" s="5">
+        <v>5</v>
+      </c>
+      <c r="X8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>SUM(M9:P9)/4</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="5">
+        <v>4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>4</v>
+      </c>
+      <c r="V9" s="2">
+        <f>SUM(R9:U9)/4</f>
+        <v>4.25</v>
+      </c>
+      <c r="W9" s="5">
+        <v>4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>SUM(W9:Y9)/3</f>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
       </c>
       <c r="D10">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="R10" s="5">
+        <v>4</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>5</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="W10" s="5">
+        <v>4</v>
+      </c>
+      <c r="X10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -840,70 +1516,268 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="R11" s="5">
+        <v>4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3</v>
+      </c>
+      <c r="U11" s="2">
+        <v>4</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="W11" s="5">
+        <v>3</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>3</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W13" s="5">
+        <v>4</v>
+      </c>
+      <c r="X13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
